--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd9-L1cam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd9-L1cam.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.482662</v>
+        <v>78.90112033333334</v>
       </c>
       <c r="H2">
-        <v>190.447986</v>
+        <v>236.703361</v>
       </c>
       <c r="I2">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="J2">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="N2">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="O2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="P2">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="Q2">
-        <v>465.4048322854567</v>
+        <v>424.1597198316264</v>
       </c>
       <c r="R2">
-        <v>4188.64349056911</v>
+        <v>3817.437478484637</v>
       </c>
       <c r="S2">
-        <v>0.06997347904745085</v>
+        <v>0.07939086416048907</v>
       </c>
       <c r="T2">
-        <v>0.06997347904745087</v>
+        <v>0.07939086416048909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.482662</v>
+        <v>78.90112033333334</v>
       </c>
       <c r="H3">
-        <v>190.447986</v>
+        <v>236.703361</v>
       </c>
       <c r="I3">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="J3">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.488444</v>
       </c>
       <c r="O3">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="P3">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="Q3">
-        <v>10.33590845264267</v>
+        <v>12.84625960669822</v>
       </c>
       <c r="R3">
-        <v>93.02317607378399</v>
+        <v>115.616336460284</v>
       </c>
       <c r="S3">
-        <v>0.001554000782492438</v>
+        <v>0.002404461347274098</v>
       </c>
       <c r="T3">
-        <v>0.001554000782492439</v>
+        <v>0.002404461347274098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.482662</v>
+        <v>78.90112033333334</v>
       </c>
       <c r="H4">
-        <v>190.447986</v>
+        <v>236.703361</v>
       </c>
       <c r="I4">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="J4">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="N4">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="O4">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="P4">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="Q4">
-        <v>469.9347857586779</v>
+        <v>788.5493950760224</v>
       </c>
       <c r="R4">
-        <v>4229.413071828101</v>
+        <v>7096.9445556842</v>
       </c>
       <c r="S4">
-        <v>0.07065455621394223</v>
+        <v>0.1475944437467267</v>
       </c>
       <c r="T4">
-        <v>0.07065455621394225</v>
+        <v>0.1475944437467267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.482662</v>
+        <v>78.90112033333334</v>
       </c>
       <c r="H5">
-        <v>190.447986</v>
+        <v>236.703361</v>
       </c>
       <c r="I5">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="J5">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="N5">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="O5">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="P5">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="Q5">
-        <v>102.5240335904787</v>
+        <v>61.23755282468344</v>
       </c>
       <c r="R5">
-        <v>922.7163023143078</v>
+        <v>551.1379754221509</v>
       </c>
       <c r="S5">
-        <v>0.01541445816338955</v>
+        <v>0.01146196116820124</v>
       </c>
       <c r="T5">
-        <v>0.01541445816338956</v>
+        <v>0.01146196116820124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.482662</v>
+        <v>78.90112033333334</v>
       </c>
       <c r="H6">
-        <v>190.447986</v>
+        <v>236.703361</v>
       </c>
       <c r="I6">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="J6">
-        <v>0.218508826829398</v>
+        <v>0.3371779636489425</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="N6">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="O6">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="P6">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="Q6">
-        <v>405.1376940810807</v>
+        <v>514.6399214787311</v>
       </c>
       <c r="R6">
-        <v>3646.239246729725</v>
+        <v>4631.75929330858</v>
       </c>
       <c r="S6">
-        <v>0.06091233262212288</v>
+        <v>0.09632623322625143</v>
       </c>
       <c r="T6">
-        <v>0.06091233262212289</v>
+        <v>0.09632623322625143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>118.167102</v>
       </c>
       <c r="I7">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="J7">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="N7">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="O7">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="P7">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="Q7">
-        <v>288.76934559953</v>
+        <v>211.749105149526</v>
       </c>
       <c r="R7">
-        <v>2598.92411039577</v>
+        <v>1905.741946345734</v>
       </c>
       <c r="S7">
-        <v>0.04341638580465214</v>
+        <v>0.0396335240170952</v>
       </c>
       <c r="T7">
-        <v>0.04341638580465214</v>
+        <v>0.03963352401709521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>118.167102</v>
       </c>
       <c r="I8">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="J8">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.488444</v>
       </c>
       <c r="O8">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="P8">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="Q8">
         <v>6.413112441032</v>
@@ -948,10 +948,10 @@
         <v>57.718011969288</v>
       </c>
       <c r="S8">
-        <v>0.0009642095609919645</v>
+        <v>0.001200355702927242</v>
       </c>
       <c r="T8">
-        <v>0.0009642095609919646</v>
+        <v>0.001200355702927242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>118.167102</v>
       </c>
       <c r="I9">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="J9">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="N9">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="O9">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="P9">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="Q9">
-        <v>291.580042028346</v>
+        <v>393.659795983998</v>
       </c>
       <c r="R9">
-        <v>2624.220378255114</v>
+        <v>3542.938163855982</v>
       </c>
       <c r="S9">
-        <v>0.04383897318240817</v>
+        <v>0.07368212946014194</v>
       </c>
       <c r="T9">
-        <v>0.04383897318240818</v>
+        <v>0.07368212946014194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>118.167102</v>
       </c>
       <c r="I10">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="J10">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="N10">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="O10">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="P10">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="Q10">
-        <v>63.613001057084</v>
+        <v>30.571024088098</v>
       </c>
       <c r="R10">
-        <v>572.517009513756</v>
+        <v>275.139216792882</v>
       </c>
       <c r="S10">
-        <v>0.009564195916821019</v>
+        <v>0.005722042681442426</v>
       </c>
       <c r="T10">
-        <v>0.009564195916821021</v>
+        <v>0.005722042681442427</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>118.167102</v>
       </c>
       <c r="I11">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="J11">
-        <v>0.13557798835347</v>
+        <v>0.1683260544097508</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="N11">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="O11">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="P11">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="Q11">
-        <v>251.375444949698</v>
+        <v>256.91865057484</v>
       </c>
       <c r="R11">
-        <v>2262.379004547282</v>
+        <v>2312.26785517356</v>
       </c>
       <c r="S11">
-        <v>0.03779422388859666</v>
+        <v>0.04808800254814397</v>
       </c>
       <c r="T11">
-        <v>0.03779422388859666</v>
+        <v>0.04808800254814397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>106.129354</v>
+        <v>44.61912266666666</v>
       </c>
       <c r="H12">
-        <v>318.388062</v>
+        <v>133.857368</v>
       </c>
       <c r="I12">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="J12">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="N12">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="O12">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="P12">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="Q12">
-        <v>778.0567582205966</v>
+        <v>239.8652197772506</v>
       </c>
       <c r="R12">
-        <v>7002.51082398537</v>
+        <v>2158.786977995256</v>
       </c>
       <c r="S12">
-        <v>0.1169806037503357</v>
+        <v>0.04489607614726094</v>
       </c>
       <c r="T12">
-        <v>0.1169806037503357</v>
+        <v>0.04489607614726094</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>106.129354</v>
+        <v>44.61912266666666</v>
       </c>
       <c r="H13">
-        <v>318.388062</v>
+        <v>133.857368</v>
       </c>
       <c r="I13">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="J13">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.488444</v>
       </c>
       <c r="O13">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="P13">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="Q13">
-        <v>17.27941539505866</v>
+        <v>7.264647583932444</v>
       </c>
       <c r="R13">
-        <v>155.514738555528</v>
+        <v>65.38182825539199</v>
       </c>
       <c r="S13">
-        <v>0.002597955000082022</v>
+        <v>0.001359739321165975</v>
       </c>
       <c r="T13">
-        <v>0.002597955000082023</v>
+        <v>0.001359739321165975</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>106.129354</v>
+        <v>44.61912266666666</v>
       </c>
       <c r="H14">
-        <v>318.388062</v>
+        <v>133.857368</v>
       </c>
       <c r="I14">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="J14">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="N14">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="O14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="P14">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="Q14">
-        <v>785.6298659104259</v>
+        <v>445.9300709416986</v>
       </c>
       <c r="R14">
-        <v>7070.668793193833</v>
+        <v>4013.370638475287</v>
       </c>
       <c r="S14">
-        <v>0.1181192182543066</v>
+        <v>0.08346566642693717</v>
       </c>
       <c r="T14">
-        <v>0.1181192182543066</v>
+        <v>0.08346566642693716</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>106.129354</v>
+        <v>44.61912266666666</v>
       </c>
       <c r="H15">
-        <v>318.388062</v>
+        <v>133.857368</v>
       </c>
       <c r="I15">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="J15">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="N15">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="O15">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="P15">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="Q15">
-        <v>171.3981284280706</v>
+        <v>34.63025454832088</v>
       </c>
       <c r="R15">
-        <v>1542.583155852636</v>
+        <v>311.6722909348879</v>
       </c>
       <c r="S15">
-        <v>0.02576965797591412</v>
+        <v>0.006481817358282557</v>
       </c>
       <c r="T15">
-        <v>0.02576965797591412</v>
+        <v>0.006481817358282558</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>106.129354</v>
+        <v>44.61912266666666</v>
       </c>
       <c r="H16">
-        <v>318.388062</v>
+        <v>133.857368</v>
       </c>
       <c r="I16">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="J16">
-        <v>0.3652997512092652</v>
+        <v>0.1906764423241422</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="N16">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="O16">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="P16">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="Q16">
-        <v>677.3030682594047</v>
+        <v>291.0323920447822</v>
       </c>
       <c r="R16">
-        <v>6095.727614334642</v>
+        <v>2619.29152840304</v>
       </c>
       <c r="S16">
-        <v>0.1018323162286268</v>
+        <v>0.05447314307049558</v>
       </c>
       <c r="T16">
-        <v>0.1018323162286268</v>
+        <v>0.05447314307049557</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.44461433333333</v>
+        <v>18.49514433333333</v>
       </c>
       <c r="H17">
-        <v>55.333843</v>
+        <v>55.485433</v>
       </c>
       <c r="I17">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="J17">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="N17">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="O17">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="P17">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="Q17">
-        <v>135.2213717877006</v>
+        <v>99.42691821776233</v>
       </c>
       <c r="R17">
-        <v>1216.992346089305</v>
+        <v>894.842263959861</v>
       </c>
       <c r="S17">
-        <v>0.02033049330212101</v>
+        <v>0.0186099447662212</v>
       </c>
       <c r="T17">
-        <v>0.02033049330212101</v>
+        <v>0.0186099447662212</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.44461433333333</v>
+        <v>18.49514433333333</v>
       </c>
       <c r="H18">
-        <v>55.333843</v>
+        <v>55.485433</v>
       </c>
       <c r="I18">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="J18">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.488444</v>
       </c>
       <c r="O18">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="P18">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="Q18">
-        <v>3.003053734476889</v>
+        <v>3.011280759583555</v>
       </c>
       <c r="R18">
-        <v>27.027483610292</v>
+        <v>27.101526836252</v>
       </c>
       <c r="S18">
-        <v>0.0004515082418372949</v>
+        <v>0.0005636277339774095</v>
       </c>
       <c r="T18">
-        <v>0.0004515082418372949</v>
+        <v>0.0005636277339774095</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.44461433333333</v>
+        <v>18.49514433333333</v>
       </c>
       <c r="H19">
-        <v>55.333843</v>
+        <v>55.485433</v>
       </c>
       <c r="I19">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="J19">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="N19">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="O19">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="P19">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="Q19">
-        <v>136.537530280889</v>
+        <v>184.8431912535503</v>
       </c>
       <c r="R19">
-        <v>1228.837772528001</v>
+        <v>1663.588721281953</v>
       </c>
       <c r="S19">
-        <v>0.02052837734276147</v>
+        <v>0.03459748769550117</v>
       </c>
       <c r="T19">
-        <v>0.02052837734276148</v>
+        <v>0.03459748769550117</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.44461433333333</v>
+        <v>18.49514433333333</v>
       </c>
       <c r="H20">
-        <v>55.333843</v>
+        <v>55.485433</v>
       </c>
       <c r="I20">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="J20">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="N20">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="O20">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="P20">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="Q20">
-        <v>29.78791688782822</v>
+        <v>14.35464253647811</v>
       </c>
       <c r="R20">
-        <v>268.091251990454</v>
+        <v>129.191782828303</v>
       </c>
       <c r="S20">
-        <v>0.004478604504345171</v>
+        <v>0.002686788543094795</v>
       </c>
       <c r="T20">
-        <v>0.004478604504345172</v>
+        <v>0.002686788543094796</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.44461433333333</v>
+        <v>18.49514433333333</v>
       </c>
       <c r="H21">
-        <v>55.333843</v>
+        <v>55.485433</v>
       </c>
       <c r="I21">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="J21">
-        <v>0.06348679958155135</v>
+        <v>0.07903759892585487</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="N21">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="O21">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="P21">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="Q21">
-        <v>117.7110140595792</v>
+        <v>120.6363051276378</v>
       </c>
       <c r="R21">
-        <v>1059.399126536213</v>
+        <v>1085.72674614874</v>
       </c>
       <c r="S21">
-        <v>0.0176978161904864</v>
+        <v>0.02257975018706028</v>
       </c>
       <c r="T21">
-        <v>0.0176978161904864</v>
+        <v>0.02257975018706028</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>63.081098</v>
+        <v>52.59995866666666</v>
       </c>
       <c r="H22">
-        <v>189.243294</v>
+        <v>157.799876</v>
       </c>
       <c r="I22">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="J22">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.331211666666667</v>
+        <v>5.375839</v>
       </c>
       <c r="N22">
-        <v>21.993635</v>
+        <v>16.127517</v>
       </c>
       <c r="O22">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="P22">
-        <v>0.3202318188366965</v>
+        <v>0.2354568587499626</v>
       </c>
       <c r="Q22">
-        <v>462.4608816037434</v>
+        <v>282.7689091986546</v>
       </c>
       <c r="R22">
-        <v>4162.14793443369</v>
+        <v>2544.920182787892</v>
       </c>
       <c r="S22">
-        <v>0.06953085693213676</v>
+        <v>0.05292644965889613</v>
       </c>
       <c r="T22">
-        <v>0.06953085693213676</v>
+        <v>0.05292644965889613</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>63.081098</v>
+        <v>52.59995866666666</v>
       </c>
       <c r="H23">
-        <v>189.243294</v>
+        <v>157.799876</v>
       </c>
       <c r="I23">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="J23">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.488444</v>
       </c>
       <c r="O23">
-        <v>0.007111844427711534</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="P23">
-        <v>0.007111844427711535</v>
+        <v>0.007131134316291014</v>
       </c>
       <c r="Q23">
-        <v>10.27052794383733</v>
+        <v>8.564044736993777</v>
       </c>
       <c r="R23">
-        <v>92.434751494536</v>
+        <v>77.076402632944</v>
       </c>
       <c r="S23">
-        <v>0.001544170842307813</v>
+        <v>0.001602950210946289</v>
       </c>
       <c r="T23">
-        <v>0.001544170842307813</v>
+        <v>0.001602950210946289</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>63.081098</v>
+        <v>52.59995866666666</v>
       </c>
       <c r="H24">
-        <v>189.243294</v>
+        <v>157.799876</v>
       </c>
       <c r="I24">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="J24">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.402569</v>
+        <v>9.994147</v>
       </c>
       <c r="N24">
-        <v>22.207707</v>
+        <v>29.982441</v>
       </c>
       <c r="O24">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="P24">
-        <v>0.3233487508909935</v>
+        <v>0.4377345486919088</v>
       </c>
       <c r="Q24">
-        <v>466.962180540762</v>
+        <v>525.6917191085906</v>
       </c>
       <c r="R24">
-        <v>4202.659624866858</v>
+        <v>4731.225471977315</v>
       </c>
       <c r="S24">
-        <v>0.07020762589757498</v>
+        <v>0.09839482136260178</v>
       </c>
       <c r="T24">
-        <v>0.07020762589757501</v>
+        <v>0.09839482136260178</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>63.081098</v>
+        <v>52.59995866666666</v>
       </c>
       <c r="H25">
-        <v>189.243294</v>
+        <v>157.799876</v>
       </c>
       <c r="I25">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="J25">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.614992666666667</v>
+        <v>0.7761303333333333</v>
       </c>
       <c r="N25">
-        <v>4.844977999999999</v>
+        <v>2.328391</v>
       </c>
       <c r="O25">
-        <v>0.07054386949514165</v>
+        <v>0.03399380269149206</v>
       </c>
       <c r="P25">
-        <v>0.07054386949514166</v>
+        <v>0.03399380269149207</v>
       </c>
       <c r="Q25">
-        <v>101.8755106752813</v>
+        <v>40.82442345327954</v>
       </c>
       <c r="R25">
-        <v>916.879596077532</v>
+        <v>367.419811079516</v>
       </c>
       <c r="S25">
-        <v>0.01531695293467178</v>
+        <v>0.007641192940471046</v>
       </c>
       <c r="T25">
-        <v>0.01531695293467178</v>
+        <v>0.007641192940471048</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>63.081098</v>
+        <v>52.59995866666666</v>
       </c>
       <c r="H26">
-        <v>189.243294</v>
+        <v>157.799876</v>
       </c>
       <c r="I26">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="J26">
-        <v>0.2171266340263155</v>
+        <v>0.2247819406913095</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.381863666666667</v>
+        <v>6.522593333333333</v>
       </c>
       <c r="N26">
-        <v>19.145591</v>
+        <v>19.56778</v>
       </c>
       <c r="O26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="P26">
-        <v>0.2787637163494568</v>
+        <v>0.2856836555503455</v>
       </c>
       <c r="Q26">
-        <v>402.5749673796394</v>
+        <v>343.0881397328088</v>
       </c>
       <c r="R26">
-        <v>3623.174706416754</v>
+        <v>3087.79325759528</v>
       </c>
       <c r="S26">
-        <v>0.06052702741962413</v>
+        <v>0.06421652651839427</v>
       </c>
       <c r="T26">
-        <v>0.06052702741962414</v>
+        <v>0.06421652651839427</v>
       </c>
     </row>
   </sheetData>
